--- a/public/excelTemplate/templateFilter.xlsx
+++ b/public/excelTemplate/templateFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zdarks\Documents\Project\Skripsi\SIpengolahandataTransaksional\public\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E8C040-DD79-4915-9C0A-310F3679F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5BE73-7B3C-466F-AFF0-B86156D61F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{568A1B60-BB8B-42E0-8AB4-31CC469BE649}"/>
   </bookViews>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,16 +151,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,71 +486,75 @@
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="11" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
